--- a/data/income_statement/3digits/total/273_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/273_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>273-Manufacture of wiring and wiring devices</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>273-Manufacture of wiring and wiring devices</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5753031.793040001</v>
+        <v>5753031.793039999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7246075.440869999</v>
+        <v>7246075.44087</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>9549169.278139999</v>
@@ -962,70 +868,80 @@
         <v>10635904.62506</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12204496.3646</v>
+        <v>12204561.48036</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12129443.21068</v>
+        <v>13484367.29145</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11868035.30059</v>
+        <v>14985714.49683</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>14576826.96335</v>
+        <v>15586446.76852</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>21410509.99787</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27357117.10771</v>
+        <v>27357278.80676</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>30262229.95321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>30275627.07677</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>36893231.661</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3768721.11274</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4790806.05061</v>
+        <v>4790806.050609999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6027662.749860001</v>
+        <v>6027662.74986</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6894992.54824</v>
+        <v>6894992.548239999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7973768.668529999</v>
+        <v>7973833.784289999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7450363.32145</v>
+        <v>8764533.325949999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7728816.005120001</v>
+        <v>10203088.94492</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9712412.904649999</v>
+        <v>10404764.59022</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>14695475.86979</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>17453760.29659</v>
+        <v>17453921.99564</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18806351.19509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18819054.53118</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>22715767.099</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1943757.10173</v>
@@ -1043,13 +959,13 @@
         <v>4160816.46498</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4594342.67254</v>
+        <v>4632782.517580001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4055712.5255</v>
+        <v>4691719.10928</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4763800.06025</v>
+        <v>5065246.6073</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>6566957.68913</v>
@@ -1058,16 +974,21 @@
         <v>9668891.08815</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11080910.37983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11081537.25711</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13813206.713</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>40553.57857000001</v>
+        <v>40553.57857</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>32989.48739</v>
@@ -1082,13 +1003,13 @@
         <v>69911.23109</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>84737.21669</v>
+        <v>87051.44792000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>83506.76996999999</v>
+        <v>90906.44262999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>100613.99845</v>
+        <v>116435.571</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>148076.43895</v>
@@ -1097,13 +1018,18 @@
         <v>234465.72297</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>374968.37829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>375035.28848</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>364257.849</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>627824.9699500001</v>
@@ -1121,13 +1047,13 @@
         <v>1328775.05151</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>734907.21398</v>
+        <v>1426098.42598</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>822258.7093300001</v>
+        <v>1454078.65274</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1632568.12458</v>
+        <v>1670735.24025</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2131024.82209</v>
@@ -1136,19 +1062,24 @@
         <v>2410072.50958</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3606008.99359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3606063.59275</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3232169.71</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>43409.55432</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>37925.80085</v>
+        <v>37925.80084999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>36265.22197</v>
@@ -1160,13 +1091,13 @@
         <v>48080.95685999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>57068.34106999999</v>
+        <v>57477.96242</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>78262.50460000001</v>
+        <v>85532.674</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>99008.83096000001</v>
+        <v>120788.25493</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>120916.29533</v>
@@ -1175,37 +1106,42 @@
         <v>153681.49733</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>458235.2179700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>458282.42219</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>235129.444</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>575016.5950500001</v>
+        <v>575016.59505</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>639852.9209200001</v>
+        <v>639852.9209199999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>503382.1857</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>840709.1990999999</v>
+        <v>840709.1991</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1255831.4784</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>645899.4455500001</v>
+        <v>1336681.0362</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>698903.8594600002</v>
+        <v>1322819.86423</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1484457.72939</v>
+        <v>1500765.03768</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1952335.62275</v>
@@ -1214,13 +1150,18 @@
         <v>2166187.39409</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3071904.45213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3071910.44325</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2868170.097</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>9398.82058</v>
@@ -1229,7 +1170,7 @@
         <v>19738.71747</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>18144.00408999999</v>
+        <v>18144.00409</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>29093.14906</v>
@@ -1241,10 +1182,10 @@
         <v>31939.42736</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>45092.34527</v>
+        <v>45726.11450999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>49101.56423</v>
+        <v>49181.94764</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>57772.90401</v>
@@ -1253,13 +1194,18 @@
         <v>90203.61816000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>75869.32349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>75870.72731</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>128870.169</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>5125206.82309</v>
@@ -1268,76 +1214,86 @@
         <v>6548558.00163</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8991377.866379999</v>
+        <v>8991377.86638</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>9723048.100090001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10875721.31309</v>
+        <v>10875786.42885</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11394535.9967</v>
+        <v>12058268.86547</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>11045776.59126</v>
+        <v>13531635.84409</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12944258.83877</v>
+        <v>13915711.52827</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>19279485.17578</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24947044.59813001</v>
+        <v>24947206.29718</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>26656220.95962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26669563.48402</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>33661061.951</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4429140.28731</v>
+        <v>4429140.287310001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5869838.822020001</v>
+        <v>5869838.82202</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>7935166.874720001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8656503.145540001</v>
+        <v>8656503.145539999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9450108.03331</v>
+        <v>9450310.62458</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9985867.466610001</v>
+        <v>10549678.34553</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9566822.55683</v>
+        <v>11588428.19451</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11113763.84431</v>
+        <v>11864029.03457</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>16599265.26431</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>21069511.28553</v>
+        <v>21071591.10236</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23052310.76389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23064432.62611</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28503565.777</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3997243.7698</v>
@@ -1352,31 +1308,36 @@
         <v>8035078.055989999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8763117.146500001</v>
+        <v>8763121.85213</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9208312.356170001</v>
+        <v>9771408.671780001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8600897.588889999</v>
+        <v>10524560.6261</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10186613.49418</v>
+        <v>10876095.81004</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>14577156.75084</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>18623332.68682</v>
+        <v>18623332.98312</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20893819.6402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20905309.48157</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>26217756.481</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>325356.05308</v>
@@ -1388,34 +1349,39 @@
         <v>464586.58838</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>460346.35919</v>
+        <v>460346.3591899999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>502412.86333</v>
+        <v>502610.74897</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>590164.7664200001</v>
+        <v>590658.1927</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>572006.66128</v>
+        <v>626697.9828299999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>688095.67908</v>
+        <v>748878.55348</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1527953.29261</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2109914.05765</v>
+        <v>2111869.55049</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1664677.70063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1665132.73702</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1795236.286</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>78527.56769</v>
@@ -1424,37 +1390,42 @@
         <v>99177.52705</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>85816.20819000002</v>
+        <v>85816.20819</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>97084.15654000001</v>
+        <v>97084.15654</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>136845.86306</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>106799.28944</v>
+        <v>106809.63996</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>350042.78428</v>
+        <v>350827.1705</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>142148.67466</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>400396.7798199999</v>
+        <v>400396.77982</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>253887.34263</v>
+        <v>254011.37032</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>248363.85369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>248539.13815</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>331711.577</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>28012.89674</v>
@@ -1463,7 +1434,7 @@
         <v>23206.05737</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>40100.84914000001</v>
+        <v>40100.84914</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>63994.57382</v>
@@ -1472,10 +1443,10 @@
         <v>47732.16042</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>80591.05458</v>
+        <v>80801.84109</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>43875.52238</v>
+        <v>86342.41507999999</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>96905.99639</v>
@@ -1487,19 +1458,24 @@
         <v>82377.19843</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>245449.56937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>245451.26937</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>158861.433</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>696066.5357799999</v>
+        <v>696066.53578</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>678719.1796099999</v>
+        <v>678719.17961</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1056210.99166</v>
@@ -1508,31 +1484,36 @@
         <v>1066544.95455</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1425613.27978</v>
+        <v>1425475.80427</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1408668.53009</v>
+        <v>1508590.51994</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1478954.03443</v>
+        <v>1943207.64958</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1830494.99446</v>
+        <v>2051682.4937</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2680219.91147</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3877533.3126</v>
+        <v>3875615.19482</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3603910.19573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3605130.85791</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5157496.174</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>421767.67276</v>
@@ -1544,34 +1525,39 @@
         <v>551950.16171</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>640803.1311299999</v>
+        <v>640803.13113</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>735274.7363700001</v>
+        <v>735275.09637</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>773765.23139</v>
+        <v>783047.6088</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>827601.8139099999</v>
+        <v>945023.9186</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>897258.5352899999</v>
+        <v>1039999.9098</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1272606.97318</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1555934.96805</v>
+        <v>1556437.13362</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1742433.01077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1744882.75469</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2098751.091</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10777.29937</v>
@@ -1592,25 +1578,30 @@
         <v>14179.34148</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>13288.93041</v>
+        <v>21834.097</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>17064.23354</v>
+        <v>20454.42059000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>32116.04545</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>36499.49262</v>
+        <v>36505.38089</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>52761.28207</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>83128.72500000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>209121.17843</v>
@@ -1625,31 +1616,36 @@
         <v>335711.15577</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>391687.8309800001</v>
+        <v>391687.83098</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>394688.28966</v>
+        <v>399051.75082</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>436935.0924399999</v>
+        <v>509770.58245</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>484428.17178</v>
+        <v>569828.06952</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>692841.66958</v>
+        <v>692841.6695799999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>854966.71793</v>
+        <v>854996.1973199999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>904102.80256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>904400.1710099999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1092761.306</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>201869.19496</v>
@@ -1664,31 +1660,36 @@
         <v>293558.79424</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>331991.09222</v>
+        <v>331991.45222</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>364897.60025</v>
+        <v>369816.5165</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>377377.7910600001</v>
+        <v>413419.23915</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>395766.12997</v>
+        <v>449717.41969</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>547649.25815</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>664468.7574999999</v>
+        <v>664935.5554099999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>785568.92614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>787721.30161</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>922861.0600000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>274298.86302</v>
@@ -1700,34 +1701,39 @@
         <v>504260.82995</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>425741.8234200001</v>
+        <v>425741.82342</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>690338.5434099998</v>
+        <v>690200.7078999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>634903.2987</v>
+        <v>725542.9111400001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>651352.22052</v>
+        <v>998183.73098</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>933236.45917</v>
+        <v>1011682.5839</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1407612.93829</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2321598.34455</v>
+        <v>2319178.0612</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1861477.18496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1860248.10322</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3058745.083</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>308103.51753</v>
@@ -1745,28 +1751,33 @@
         <v>711644.6159</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>726657.06102</v>
+        <v>783309.27175</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1369222.79325</v>
+        <v>1572505.97256</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1309900.84778</v>
+        <v>1377439.55439</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1628535.34386</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4199618.02278</v>
+        <v>4203067.88009</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2590071.35417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2590661.21225</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4610395.959</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5551.752030000001</v>
@@ -1784,13 +1795,13 @@
         <v>32635.384</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>410.11269</v>
+        <v>4150.97549</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>212.18165</v>
+        <v>8151.20908</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1708.98041</v>
+        <v>1727.92091</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>5384.88733</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>15774.87405</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>16901.518</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>12048.45685</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>23988.79518</v>
@@ -1856,19 +1877,19 @@
         <v>27060.69677</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>48207.44396999999</v>
+        <v>48207.44397</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>41965.62621</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>51098.53909000001</v>
+        <v>51282.92803999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32030.07686</v>
+        <v>47662.71564</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>53791.38264999999</v>
+        <v>57993.50184999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>55287.54294000001</v>
@@ -1877,13 +1898,18 @@
         <v>140148.59209</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>157357.68747</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>157367.31043</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>96616.467</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>738.3595899999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>4012.47634</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3262.713</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>35073.8639</v>
@@ -1940,13 +1971,13 @@
         <v>11314.03523</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>13817.82277</v>
+        <v>13832.50598</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9701.45751</v>
+        <v>9749.069099999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>16302.38029</v>
+        <v>16925.72706</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11151.52293</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>25203.79259</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>32571.734</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>512.39977</v>
@@ -1982,7 +2018,7 @@
         <v>13397.4368</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>269620.91633</v>
+        <v>269621.03649</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>90580.80705000002</v>
@@ -1991,16 +2027,21 @@
         <v>8246.92195</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>140623.37111</v>
+        <v>140623.3769</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>94153.79957</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>31836.451</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>191791.97916</v>
@@ -2009,43 +2050,48 @@
         <v>206289.18711</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>403118.82866</v>
+        <v>403118.8286599999</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>386200.5012000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>537656.9171900001</v>
+        <v>537656.9171899999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>552865.93218</v>
+        <v>594839.99269</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>969905.3781900001</v>
+        <v>1127246.6838</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1017372.31567</v>
+        <v>1050869.22338</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1362976.64105</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3630001.04661</v>
+        <v>3631493.70851</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2047599.99618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2048162.939</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4209853.848</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6649.400560000001</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>4211.01344</v>
+        <v>4211.013440000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>6945.98034</v>
@@ -2057,13 +2103,13 @@
         <v>13724.82252</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>25038.90195</v>
+        <v>33322.0664</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>19188.32736</v>
+        <v>33812.8917</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>27579.52949</v>
+        <v>46273.23917</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>43181.74790000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>42538.70059</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>37876.392</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.255</v>
@@ -2113,20 +2164,25 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>148.545</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>43796.71234000001</v>
+        <v>43796.71234</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>43155.53915</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>51847.01061999999</v>
+        <v>51847.01062</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>51231.97264</v>
@@ -2135,28 +2191,33 @@
         <v>60842.92238</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>59395.60721</v>
+        <v>61850.65802</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>54433.32421</v>
+        <v>62131.23561</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>74750.02129999999</v>
+        <v>85253.70405</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>115514.27215</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>196349.39886</v>
+        <v>198306.58848</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>191381.57053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>191398.86283</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>178728.291</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>265765.48457</v>
@@ -2165,37 +2226,42 @@
         <v>253431.85371</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>650774.3288099999</v>
+        <v>650774.32881</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>378572.11867</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>820735.65284</v>
+        <v>820735.6528399999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>840731.9244400001</v>
+        <v>859848.5497199999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1235764.24046</v>
+        <v>1436308.81221</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1201403.04022</v>
+        <v>1287774.57644</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1645278.47681</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4240677.99468</v>
+        <v>4241398.86365</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2384137.66243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2384413.35533</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4301418.761</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11109.59773</v>
@@ -2210,13 +2276,13 @@
         <v>5127.53441</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7054.754079999999</v>
+        <v>7054.75408</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>13981.01164</v>
+        <v>14041.17461</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1857.18173</v>
+        <v>8857.272190000002</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>12239.6718</v>
@@ -2225,16 +2291,21 @@
         <v>14418.64219</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>19150.24984</v>
+        <v>19150.37619</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>10449.4913</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10449.894</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2551.845</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>14248.96475</v>
@@ -2252,13 +2323,13 @@
         <v>17120.73021</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>53596.76512</v>
+        <v>54560.44089</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>29888.76473</v>
+        <v>36931.21302</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>43040.72399</v>
+        <v>50263.82879</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>41656.16488</v>
@@ -2267,13 +2338,18 @@
         <v>101552.67638</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>81472.87552000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>81472.87552</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>55471.148</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>62.43517</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>67095.25792999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>15788.424</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>195147.10893</v>
@@ -2321,7 +2402,7 @@
         <v>186051.34058</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>581881.2922500002</v>
+        <v>581881.2922499998</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>297325.75166</v>
@@ -2330,28 +2411,33 @@
         <v>728411.7129400001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>682270.9460899999</v>
+        <v>688407.5519600001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1124918.76808</v>
+        <v>1288105.54109</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1058157.73584</v>
+        <v>1096142.13794</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1462021.96846</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3775938.200850001</v>
+        <v>3776411.75366</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2044859.60319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2045134.89326</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3995840.487</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4357.231100000001</v>
@@ -2369,28 +2455,33 @@
         <v>28805.67805000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>23379.06438</v>
+        <v>32764.0258</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>21362.85253</v>
+        <v>33674.72628</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>29874.0698</v>
+        <v>50170.31129</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>40550.13696</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>50818.40014</v>
+        <v>51065.57029</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>41938.98643</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>49492.545</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>40840.14689</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>36942.51806999999</v>
+        <v>36942.51807</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>32872.02726</v>
@@ -2447,28 +2543,33 @@
         <v>37328.44198999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>54646.99104000001</v>
+        <v>57218.21029</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>47392.98534</v>
+        <v>58396.37158</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>55871.62922</v>
+        <v>76739.41705</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>79826.88426000001</v>
+        <v>79826.88425999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>171214.37639</v>
+        <v>171214.39605</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>138321.44806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>138321.44819</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>182274.312</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>180819.53706</v>
@@ -2486,28 +2587,33 @@
         <v>314639.04541</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>282079.4277</v>
+        <v>364697.32888</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>385750.38964</v>
+        <v>550886.73262</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>544011.90278</v>
+        <v>551766.75222</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>547691.6856999999</v>
+        <v>547691.6857</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1262868.96336</v>
+        <v>1262871.7655</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>861233.19453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>861385.0330899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1231213.539</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>170272.38916</v>
@@ -2525,28 +2631,33 @@
         <v>265119.76231</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>259631.15472</v>
+        <v>323342.73965</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>358024.1178599999</v>
+        <v>495773.49444</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>512241.44946</v>
+        <v>519996.2989</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>490182.23604</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>822456.79301</v>
+        <v>822459.59515</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>775281.22428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>775433.0628400001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1103132.017</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10547.1479</v>
@@ -2561,13 +2672,13 @@
         <v>43559.69465999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>49519.28310000001</v>
+        <v>49519.2831</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>22448.27298</v>
+        <v>41354.58923</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>27726.27178</v>
+        <v>55113.23818</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>31770.45332</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>85951.97025</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>128081.522</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>135817.35892</v>
@@ -2597,37 +2713,42 @@
         <v>165775.55904</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>356525.5173</v>
+        <v>356525.5172999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>266608.46106</v>
+        <v>266470.62555</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>238749.00758</v>
+        <v>284306.30429</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>399060.38367</v>
+        <v>583494.15871</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>497722.36395</v>
+        <v>549580.80963</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>843178.1196399999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1017669.40929</v>
+        <v>1017975.31214</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1206177.68217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1205110.92705</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2136508.742</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>24943.69678999999</v>
+        <v>24943.69679</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>25315.85992</v>
@@ -2639,31 +2760,36 @@
         <v>57899.25141</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>116750.96786</v>
+        <v>116762.93786</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>119987.94163</v>
+        <v>121620.12875</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>118826.07157</v>
+        <v>143326.79745</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>65107.20368999999</v>
+        <v>66394.50994999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>133183.3987</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>129801.89418</v>
+        <v>129812.06451</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>144271.22649</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>144467.23297</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>286030.154</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1836.30623</v>
@@ -2675,19 +2801,19 @@
         <v>1491.21403</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>537.2762500000001</v>
+        <v>537.27625</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1599.63135</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>939.82235</v>
+        <v>945.32235</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>222.81988</v>
+        <v>504.64615</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5413.475570000001</v>
+        <v>5434.60294</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1198.18638</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>5970.19011</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4141.668</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>23107.39056</v>
@@ -2717,31 +2848,36 @@
         <v>57361.97515999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>115151.33651</v>
+        <v>115163.30651</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>119048.11928</v>
+        <v>120674.8064</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>118603.25169</v>
+        <v>142822.1513</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>59693.72812000001</v>
+        <v>60959.90701</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>131985.21232</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>127990.56213</v>
+        <v>128000.73246</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>138301.03638</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>138497.04286</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>281888.486</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>58190.4618</v>
@@ -2759,28 +2895,33 @@
         <v>71932.00728000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>89523.02568999999</v>
+        <v>89927.30022999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>90249.65904000001</v>
+        <v>97579.02666999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>113319.34677</v>
+        <v>121579.56537</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>99097.45535999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>167329.17361</v>
+        <v>167409.83235</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>234357.52992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>234568.06071</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>125553.399</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4901.47303</v>
@@ -2789,10 +2930,10 @@
         <v>7081.464390000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3635.27098</v>
+        <v>3635.270979999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>6992.78211</v>
+        <v>6992.782109999999</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>17459.60987</v>
@@ -2801,7 +2942,7 @@
         <v>21195.34174</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>14217.26944</v>
+        <v>17589.57205</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>20067.18413</v>
@@ -2810,16 +2951,21 @@
         <v>27840.87462</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>27316.59762</v>
+        <v>27384.64707</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>62473.06606</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>32539.24</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4116.85552</v>
@@ -2837,13 +2983,13 @@
         <v>2032.97273</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1701.6362</v>
+        <v>1724.92199</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>21308.95948</v>
+        <v>21534.46216</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11166.42871</v>
+        <v>11337.50806</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>11046.61635</v>
@@ -2852,13 +2998,18 @@
         <v>3285.96867</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3105.71111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3108.71111</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3807.756</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>49172.13325</v>
@@ -2876,28 +3027,33 @@
         <v>52439.42468</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>66626.04775</v>
+        <v>67007.0365</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>54723.43012</v>
+        <v>58454.99246</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>82085.73393</v>
+        <v>90174.87318</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>60209.96439</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>136726.60732</v>
+        <v>136739.21661</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>168778.75275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>168986.28354</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>89206.40300000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>102570.59391</v>
@@ -2912,31 +3068,36 @@
         <v>370831.2667399999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>311427.4216400001</v>
+        <v>311301.55613</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>269213.92352</v>
+        <v>315999.13281</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>427636.7962</v>
+        <v>629241.92949</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>449510.22087</v>
+        <v>494395.75421</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>877264.06298</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>980142.1298599999</v>
+        <v>980377.5443000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1116091.37874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1115010.09931</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2296985.497</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>41206.90029</v>
@@ -2945,7 +3106,7 @@
         <v>33666.76084</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>51246.32514000001</v>
+        <v>51246.32514</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>67758.78659</v>
@@ -2954,31 +3115,36 @@
         <v>71974.36203999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>81806.35238999999</v>
+        <v>82419.22468000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>58732.32512</v>
+        <v>92248.16590000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>73222.10126000001</v>
+        <v>85136.91201</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>99447.45782000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>161438.83071</v>
+        <v>161615.14452</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>138859.30063</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>138982.55333</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>261365.315</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>61363.69362</v>
+        <v>61363.69361999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>138392.96599</v>
@@ -2990,28 +3156,31 @@
         <v>303072.48015</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>239453.0596</v>
+        <v>239327.19409</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>187407.57113</v>
+        <v>233579.90813</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>368904.4710799999</v>
+        <v>536993.7635899999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>376288.1196099999</v>
+        <v>409258.8422000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>777816.6051599999</v>
+        <v>777816.60516</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>818703.2991499999</v>
+        <v>818762.3997800001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>977232.07811</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>976027.5459800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2035620.182</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>403</v>
@@ -3044,28 +3216,31 @@
         <v>457</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>565</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>609</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>